--- a/PRODUCT BACKLOG MIMERCADO.xlsx
+++ b/PRODUCT BACKLOG MIMERCADO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\mintic\PROGRAMACION CICLO 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EA6575-3CBC-41FB-895E-7BAAD292C0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213E679-0B52-44AF-A20E-06D0F5DA2756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{F7EA0926-D6C2-49CA-BF89-23FBB5F6AAE8}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{F7EA0926-D6C2-49CA-BF89-23FBB5F6AAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
   <si>
     <t>TAREAS</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>CREAR DOCUMENTO CON REQUERIMIENTO</t>
   </si>
 </sst>
 </file>
@@ -397,12 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -411,6 +408,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
@@ -926,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE21FFD-0B16-4FA4-8E1F-CBDF4C17560A}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -937,11 +940,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1352,7 +1355,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,12 +1367,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1387,9 +1390,9 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1403,7 +1406,7 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1417,7 +1420,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1431,7 +1434,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1445,7 +1448,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1459,7 +1462,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1473,7 +1476,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1487,7 +1490,7 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1501,7 +1504,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1526,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F770D5-47BB-4E4B-8E90-8F0B1206000F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1539,12 +1542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1561,10 +1564,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1575,10 +1578,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1589,10 +1592,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1603,10 +1606,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1617,10 +1620,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1631,10 +1634,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1645,10 +1648,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1659,10 +1662,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1694,20 +1697,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="54.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1724,10 +1727,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1738,10 +1741,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1752,10 +1755,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1766,10 +1769,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1780,10 +1783,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1794,10 +1797,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1808,10 +1811,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1822,10 +1825,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1856,20 +1859,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="74.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1886,10 +1889,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1900,10 +1903,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1914,10 +1917,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1928,10 +1931,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1942,10 +1945,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1956,10 +1959,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1970,10 +1973,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1984,10 +1987,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1998,10 +2001,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2012,10 +2015,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2026,10 +2029,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2040,10 +2043,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2054,10 +2057,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2089,20 +2092,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="74.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2119,10 +2122,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2133,10 +2136,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2147,10 +2150,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2161,10 +2164,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2175,10 +2178,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2189,10 +2192,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2203,10 +2206,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2217,10 +2220,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2231,10 +2234,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="7" t="s">
